--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_hetero-box.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_hetero-box.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moral\HAS_582\homework-david-edu-morales\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45B6D3-9A50-40DE-99C6-8429F200BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA0D5E3-DBCF-4597-9A9F-DA1BC1664049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
